--- a/未来大座標地図.xlsx
+++ b/未来大座標地図.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomisuke\Online\gitHub\FUNCoordinateSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A9A5CF-7620-410A-AE7D-02F1AD6914D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85E89D9-F228-4F74-BA3F-E79ADABBF24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{2ACBD5A1-5441-40EF-ADCA-5FC5D92ED898}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="6" r:id="rId2"/>
-    <sheet name="2" sheetId="2" r:id="rId3"/>
-    <sheet name="4" sheetId="5" r:id="rId4"/>
-    <sheet name="5" sheetId="4" r:id="rId5"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="7" r:id="rId3"/>
+    <sheet name="4" sheetId="8" r:id="rId4"/>
+    <sheet name="5" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
   <si>
     <t>ミュージアム</t>
     <phoneticPr fontId="1"/>
@@ -339,6 +339,91 @@
     <rPh sb="4" eb="6">
       <t>ツウロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトリエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+トイレ
+通路</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッカー通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッカー通路
+通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食堂</t>
+    <rPh sb="0" eb="2">
+      <t>ショクドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <rPh sb="0" eb="2">
+      <t>チュウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下</t>
+    <rPh sb="0" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階段
+通路</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事スペース</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレベイ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,9 +508,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +524,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,32 +849,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21E02E2-4953-40E7-AFFF-805869902ED8}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="2"/>
-    <col min="2" max="2" width="5.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2"/>
-    <col min="4" max="4" width="5.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="2"/>
-    <col min="6" max="6" width="5.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2"/>
-    <col min="8" max="8" width="5.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2"/>
-    <col min="10" max="10" width="5.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2"/>
-    <col min="12" max="12" width="5.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="2"/>
-    <col min="14" max="14" width="5.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="2"/>
-    <col min="16" max="16" width="5.58203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="2"/>
-    <col min="18" max="18" width="5.58203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="16.6640625" style="2"/>
+    <col min="1" max="1" width="16.625" style="2"/>
+    <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2"/>
+    <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2"/>
+    <col min="8" max="8" width="5.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2"/>
+    <col min="10" max="10" width="5.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2"/>
+    <col min="12" max="12" width="5.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="2"/>
+    <col min="14" max="14" width="5.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="2"/>
+    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="2"/>
+    <col min="18" max="18" width="5.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="16.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>22</v>
       </c>
@@ -810,7 +896,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -848,7 +934,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -870,7 +956,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>19</v>
       </c>
@@ -908,7 +994,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -930,7 +1016,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>17</v>
       </c>
@@ -968,7 +1054,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -990,7 +1076,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -1028,7 +1114,7 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>14</v>
       </c>
@@ -1050,7 +1136,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -1088,7 +1174,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1110,7 +1196,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1148,7 +1234,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1170,7 +1256,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -1208,7 +1294,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -1230,7 +1316,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -1272,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1294,7 +1380,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1332,7 +1418,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -1354,7 +1440,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -1392,7 +1478,7 @@
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1416,7 +1502,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1434,7 +1520,7 @@
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1448,758 +1534,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2">
-        <v>7</v>
-      </c>
-      <c r="J25" s="2">
-        <v>8</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2">
-        <v>10</v>
-      </c>
-      <c r="M25" s="2">
-        <v>11</v>
-      </c>
-      <c r="N25" s="2">
-        <v>12</v>
-      </c>
-      <c r="O25" s="2">
-        <v>13</v>
-      </c>
-      <c r="P25" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>15</v>
-      </c>
-      <c r="R25" s="2">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325E192A-BC78-4072-9569-38EB7ED94A87}">
-  <dimension ref="A2:R25"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" style="2"/>
-    <col min="2" max="2" width="5.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2"/>
-    <col min="4" max="4" width="5.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="2"/>
-    <col min="6" max="6" width="5.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2"/>
-    <col min="8" max="8" width="5.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2"/>
-    <col min="10" max="10" width="5.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2"/>
-    <col min="12" max="12" width="5.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="2"/>
-    <col min="14" max="14" width="5.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="2"/>
-    <col min="16" max="16" width="5.58203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="2"/>
-    <col min="18" max="18" width="5.58203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="16.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>363</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>364</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>365</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -2258,7 +1593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180C79C-87B2-440B-8D74-CF6EFF252748}">
   <dimension ref="A1:R25"/>
   <sheetViews>
@@ -2266,20 +1601,20 @@
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.58203125" customWidth="1"/>
-    <col min="4" max="4" width="5.58203125" customWidth="1"/>
-    <col min="6" max="6" width="5.58203125" customWidth="1"/>
-    <col min="8" max="8" width="5.58203125" customWidth="1"/>
-    <col min="10" max="10" width="5.58203125" customWidth="1"/>
-    <col min="12" max="12" width="5.58203125" customWidth="1"/>
-    <col min="14" max="14" width="5.58203125" customWidth="1"/>
-    <col min="16" max="16" width="5.58203125" customWidth="1"/>
-    <col min="18" max="18" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2299,7 +1634,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>22</v>
       </c>
@@ -2321,7 +1656,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -2343,7 +1678,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -2365,7 +1700,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>19</v>
       </c>
@@ -2387,7 +1722,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -2409,7 +1744,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>17</v>
       </c>
@@ -2431,7 +1766,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -2453,7 +1788,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -2475,7 +1810,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>14</v>
       </c>
@@ -2497,7 +1832,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -2519,7 +1854,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2541,7 +1876,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2563,7 +1898,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2585,7 +1920,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -2607,7 +1942,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -2629,7 +1964,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -2651,7 +1986,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2673,7 +2008,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -2695,7 +2030,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2717,7 +2052,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -2739,7 +2074,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -2761,20 +2096,10 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2783,20 +2108,10 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2805,7 +2120,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -2864,45 +2179,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF961A-F099-47B3-97D8-3C234DDBCE1E}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B510A54-BAB7-4CE0-8ED7-053C52F19AC2}">
   <dimension ref="A2:R25"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="2"/>
-    <col min="2" max="2" width="5.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2"/>
-    <col min="4" max="4" width="5.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="2"/>
-    <col min="6" max="6" width="5.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2"/>
-    <col min="8" max="8" width="5.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2"/>
-    <col min="10" max="10" width="5.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2"/>
-    <col min="12" max="12" width="5.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="2"/>
-    <col min="14" max="14" width="5.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="2"/>
-    <col min="16" max="16" width="5.58203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="2"/>
-    <col min="18" max="18" width="5.58203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="16.6640625" style="2"/>
+    <col min="1" max="1" width="16.625" style="2"/>
+    <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2"/>
+    <col min="4" max="4" width="5.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="2"/>
+    <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2"/>
+    <col min="8" max="8" width="5.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2"/>
+    <col min="10" max="10" width="5.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2"/>
+    <col min="12" max="12" width="5.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="2"/>
+    <col min="14" max="14" width="5.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="2"/>
+    <col min="16" max="16" width="5.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="2"/>
+    <col min="18" max="18" width="5.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="16.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2917,45 +2234,45 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>20</v>
       </c>
@@ -2977,45 +2294,45 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>19</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -3037,45 +2354,45 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>17</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
+      <c r="M7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -3097,45 +2414,45 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>15</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>23</v>
+      <c r="Q9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>14</v>
       </c>
@@ -3157,45 +2474,45 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>25</v>
+      <c r="K11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
+      <c r="M11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
-        <v>25</v>
+      <c r="O11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>25</v>
+      <c r="Q11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3217,45 +2534,45 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
+      <c r="M13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -3277,45 +2594,45 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>363</v>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>364</v>
+      <c r="I15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>365</v>
+      <c r="K15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>22</v>
+      <c r="M15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>8</v>
       </c>
@@ -3337,49 +2654,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
+      <c r="M17" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -3401,45 +2714,45 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>5</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
+      <c r="M19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3461,45 +2774,45 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
+      <c r="M21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -3507,9 +2820,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3523,39 +2834,623 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="4" t="s">
-        <v>32</v>
+      <c r="M23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <v>10</v>
+      </c>
+      <c r="M25" s="2">
+        <v>11</v>
+      </c>
+      <c r="N25" s="2">
+        <v>12</v>
+      </c>
+      <c r="O25" s="2">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>15</v>
+      </c>
+      <c r="R25" s="2">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D115D31-348E-44A5-AAB3-90315A3ABE70}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -3615,697 +3510,536 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F77800-278D-4DBC-8202-6A9B4125DB7E}">
-  <dimension ref="A2:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA3BCA6-E0B1-4FDF-9843-85DD81F3C442}">
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="2"/>
-    <col min="2" max="2" width="5.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2"/>
-    <col min="4" max="4" width="5.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="2"/>
-    <col min="6" max="6" width="5.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="2"/>
-    <col min="8" max="8" width="5.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2"/>
-    <col min="10" max="10" width="5.58203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2"/>
-    <col min="12" max="12" width="5.58203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="2"/>
-    <col min="14" max="14" width="5.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="2"/>
-    <col min="16" max="16" width="5.58203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="2"/>
-    <col min="18" max="18" width="5.58203125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="16.6640625" style="2"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>22</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>21</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>19</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <v>363</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>364</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>365</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>3</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="100" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <v>0</v>
       </c>
